--- a/database/industries/darou/defara/product/yearly.xlsx
+++ b/database/industries/darou/defara/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4807D5-E8EE-4CFC-B614-6F0461582055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D8B32-C650-46E2-847F-595656609554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="42">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -55,15 +55,15 @@
     <t>سایر</t>
   </si>
   <si>
+    <t>ریال</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>عدد</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ریال</t>
-  </si>
-  <si>
     <t>قرص</t>
   </si>
   <si>
@@ -127,7 +127,7 @@
     <t>نرخ فروش</t>
   </si>
   <si>
-    <t>میلیون ریال / ریال</t>
+    <t>عدد / ریال</t>
   </si>
   <si>
     <t>هزار عدد / ریال</t>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>ریال / ریال</t>
-  </si>
-  <si>
-    <t>عدد / ریال</t>
   </si>
   <si>
     <t>متغرقه / ریال</t>
@@ -602,12 +599,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -617,7 +614,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +626,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +638,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -651,7 +648,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -663,7 +660,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +672,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -685,7 +682,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -707,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -717,7 +714,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -741,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -765,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -789,7 +786,7 @@
         <v>351966</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -813,7 +810,7 @@
         <v>915585</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -837,7 +834,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -883,12 +880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -907,12 +904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
@@ -931,12 +928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -979,12 +976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
@@ -1003,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1051,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>1274415</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1107,7 +1104,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1117,7 +1114,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1127,7 +1124,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1159,12 +1156,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
@@ -1183,12 +1180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1207,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>369401</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>901021</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>7028</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>17</v>
       </c>
@@ -1327,12 +1324,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
@@ -1351,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1397,12 +1394,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
@@ -1421,12 +1418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
@@ -1445,12 +1442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
@@ -1469,12 +1466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
@@ -1493,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>22</v>
       </c>
@@ -1517,12 +1514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
@@ -1541,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>23</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>25</v>
       </c>
@@ -1589,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>27</v>
       </c>
@@ -1635,7 +1632,7 @@
         <v>1277450</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1645,7 +1642,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1655,7 +1652,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1665,7 +1662,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1697,7 +1694,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>1928214</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>4386089</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>521192</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>32</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -1937,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>23</v>
       </c>
@@ -1961,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>26</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2028,7 @@
         <v>6835495</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2041,7 +2038,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2051,7 +2048,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2061,7 +2058,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2093,7 +2090,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>5219840</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>16</v>
       </c>
@@ -2165,7 +2162,7 @@
         <v>4867910</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>74159363</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>32</v>
       </c>
@@ -2261,12 +2258,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
@@ -2285,12 +2282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -2309,12 +2306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
@@ -2333,12 +2330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
@@ -2357,12 +2354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
@@ -2381,12 +2378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
@@ -2405,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2415,7 +2412,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2425,7 +2422,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2435,9 +2432,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2457,7 +2454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2467,7 +2464,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>-1565014</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>16</v>
       </c>
@@ -2539,7 +2536,7 @@
         <v>-3213345</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>-363312</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>31</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>32</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>22</v>
       </c>
@@ -2707,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>23</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>25</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2798,7 @@
         <v>-5141671</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2811,7 +2808,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2821,7 +2818,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2831,9 +2828,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2853,7 +2850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2863,7 +2860,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>10</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2908,7 @@
         <v>363200</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2932,7 @@
         <v>1172744</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>17</v>
       </c>
@@ -2959,7 +2956,7 @@
         <v>157880</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>31</v>
       </c>
@@ -2983,7 +2980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>19</v>
       </c>
@@ -3007,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>32</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>22</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>23</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>25</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>27</v>
       </c>
